--- a/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-1_b_sunrise_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-13_a_sunrise_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-1_a_sunrise_30_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-6_a_sunrise_30_Presence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-11_a_sunrise_30_Presence" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-1_b_sunrise_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-13_a_sunrise_30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-1_a_sunrise_30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-6_a_sunrise_30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-11_a_sunrise_30" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,322 +469,322 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.224150686769481e-18</v>
+        <v>9.232173769353877e-08</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.915776083896338e-09</v>
+        <v>4.249248776906469e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.006579316065446e-08</v>
+        <v>0.0002272209019632504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2894736842105263</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.87206178130627e-08</v>
+        <v>0.002436803323592521</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.554172375674018e-07</v>
+        <v>0.002537769819477151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3461538461538461</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.420456068812458e-07</v>
+        <v>0.005217793549052636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8333333333333334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.622292200976361e-07</v>
+        <v>0.008778158949406544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1857142857142857</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.664955363530378e-06</v>
+        <v>0.01824424053576661</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.042883522546223e-06</v>
+        <v>0.02122915936390627</v>
       </c>
       <c r="D10" t="n">
         <v>0.2962962962962963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2962962962962963</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.358559182543643e-05</v>
+        <v>0.0498591149601148</v>
       </c>
       <c r="D11" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.781686630904587e-05</v>
+        <v>0.0498591149601148</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4166666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.686023225447713e-05</v>
+        <v>0.0498591149601148</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.980964693714122e-05</v>
+        <v>0.1669009455785512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1764705882352941</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001824460629273174</v>
+        <v>0.189735204585445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0005842853390436826</v>
+        <v>0.2147309944987657</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1023622047244094</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1023622047244094</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0009210802056184774</v>
+        <v>0.2430901792874409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3076923076923077</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001309246489049331</v>
+        <v>0.2468695291068543</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -792,56 +792,56 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003421989493997434</v>
+        <v>0.2499330041870779</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2222222222222222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.004528536207792331</v>
+        <v>0.4520421736163449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.101123595505618</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E20" t="n">
-        <v>0.101123595505618</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.007485591942350761</v>
+        <v>0.4520421736163449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -849,89 +849,89 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.00860318108554327</v>
+        <v>0.5095869341155265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1739130434782609</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01025063684394791</v>
+        <v>0.5839180780303638</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2307692307692308</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.02438391931166376</v>
+        <v>0.6252889900607135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2857142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04866147550851038</v>
+        <v>0.6542213533963621</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.07131947979821354</v>
+        <v>0.6614599409882915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -940,254 +940,254 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07860313238013832</v>
+        <v>0.6614599409882915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1538461538461539</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1050622101960008</v>
+        <v>0.6898295512378607</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.149953422635264</v>
+        <v>0.6898295512378607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1052631578947368</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1689396870940088</v>
+        <v>0.6948038353026398</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1689396870940088</v>
+        <v>0.7689530272341782</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2282894192416236</v>
+        <v>0.8280204492465161</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1428571428571428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2282894192416236</v>
+        <v>0.851665111336008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1428571428571428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2563668609526261</v>
+        <v>0.8897111140830085</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2834300984953605</v>
+        <v>0.9897275349222526</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1111111111111111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3346581431308064</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09090909090909091</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3588918503394151</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08333333333333333</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4047617812700636</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07142857142857142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5740220313621099</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04347826086956522</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1235,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1387,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1406,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1425,7 +1425,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Riboflavin metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Intracellular source/sink</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Intracellular demand</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutamate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,406 +1547,406 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.063817611459373e-09</v>
+        <v>1.318049911318032e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1496062992125984</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1496062992125984</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.341340221019778e-09</v>
+        <v>0.00121560073843581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2894736842105263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.617475485796423e-08</v>
+        <v>0.001605396943410648</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.154149004210753e-08</v>
+        <v>0.03175508815186271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1857142857142857</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.962014640645616e-07</v>
+        <v>0.04542500438488091</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.443815297381703e-06</v>
+        <v>0.05966555502832293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2592592592592592</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.559173300906287e-06</v>
+        <v>0.06069135179266902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6666666666666666</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.001316691441411e-06</v>
+        <v>0.1038789633410022</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1764705882352941</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.093497868603896e-05</v>
+        <v>0.1062634680451905</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4166666666666667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.377758615855679e-05</v>
+        <v>0.1077636152954809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.314891993637378e-05</v>
+        <v>0.1293128262074345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2307692307692308</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002087970758757079</v>
+        <v>0.1687352667674706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0004090349784505095</v>
+        <v>0.1746186520108849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0007869289861236917</v>
+        <v>0.2040257774503768</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003975769355316927</v>
+        <v>0.2135449451467544</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.00454924808168832</v>
+        <v>0.2900020872031235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01304263493368205</v>
+        <v>0.2900020872031235</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1666666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01304263493368205</v>
+        <v>0.3358823806074069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1666666666666667</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01506326497750393</v>
+        <v>0.3364460258719661</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2857142857142857</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01517583382477774</v>
+        <v>0.416204135493493</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1578947368421053</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0382089696745098</v>
+        <v>0.496541430119945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06741573033707865</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1878,165 +1954,165 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.05013047508186885</v>
+        <v>0.5288344176913294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1538461538461539</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05013047508186885</v>
+        <v>0.5288344176913294</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1538461538461539</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05558163469951316</v>
+        <v>0.5627853444132302</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.057433282250041</v>
+        <v>0.5999382339811227</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1428571428571428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.08221382287501496</v>
+        <v>0.6494667895424961</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3333333333333333</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1081020144727905</v>
+        <v>0.7478207012694071</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1332667975695973</v>
+        <v>0.7478207012694071</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1358682220183744</v>
+        <v>0.775379661060177</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08695652173913043</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1358682220183744</v>
+        <v>0.775379661060177</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08695652173913043</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -2045,83 +2121,83 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1815056844520576</v>
+        <v>0.8085182465266014</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1428571428571428</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1815056844520576</v>
+        <v>0.999995953020027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1428571428571428</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2701476456061456</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09090909090909091</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3108336008815673</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07692307692307693</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2131,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2150,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2169,12 +2245,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2188,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2207,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2226,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2245,16 +2321,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2264,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2283,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2302,12 +2378,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2321,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2340,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2359,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2368,7 +2444,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2378,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2397,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2416,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2435,7 +2511,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Riboflavin metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Biotin metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutamate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,26 +2633,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.281221946041593e-13</v>
+        <v>5.710056631976025e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2508,668 +2660,668 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.265482312388839e-12</v>
+        <v>0.0001270762438682348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4814814814814815</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.627420852323947e-12</v>
+        <v>0.0001725360437166569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1968503937007874</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1968503937007874</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.471642130578227e-09</v>
+        <v>0.0003030056858436695</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.319416973542481e-09</v>
+        <v>0.0004087448872389506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.22629270478597e-07</v>
+        <v>0.002905128950623945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2894736842105263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.355159455191903e-06</v>
+        <v>0.05569751324188041</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.190044861462121e-05</v>
+        <v>0.05569751324188041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196078431372549</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.196078431372549</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.59369438483838e-05</v>
+        <v>0.07887160459185714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2692307692307692</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002358288688034466</v>
+        <v>0.07968578380358168</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0003562387521845329</v>
+        <v>0.1236171177928343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1428571428571428</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0005110919817695771</v>
+        <v>0.2027650363875992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2777777777777778</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0005724528591266423</v>
+        <v>0.2418309209174775</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0009084418955152137</v>
+        <v>0.2655877783995025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3333333333333333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001111721142131961</v>
+        <v>0.2668670504069062</v>
       </c>
       <c r="D16" t="n">
         <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001555198528401657</v>
+        <v>0.2979202226227424</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001555198528401657</v>
+        <v>0.3681624568827794</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001710180091565401</v>
+        <v>0.4100162378179982</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.1875</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2173913043478261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.00454414841162046</v>
+        <v>0.4510158599586206</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.005933206854465085</v>
+        <v>0.4843840973378545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4843840973378545</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E22" t="n">
         <v>11</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pyrimidine metabolism</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01157815663523286</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01295944134461765</v>
+        <v>0.5489483662012287</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2307692307692308</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01295944134461765</v>
+        <v>0.5589870079506706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2307692307692308</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02864830911721947</v>
+        <v>0.6068761562076039</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.05680611884358425</v>
+        <v>0.6068761562076039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.091184802106458</v>
+        <v>0.6238719128327643</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1538461538461539</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.103711780602133</v>
+        <v>0.6590805407603657</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1140943149934572</v>
+        <v>0.7124655706034514</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1387186840656704</v>
+        <v>0.7124655706034514</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06741573033707865</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1718559529083948</v>
+        <v>0.7898612685280411</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1052631578947368</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1828755438369186</v>
+        <v>0.8465466450129806</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2463503766791058</v>
+        <v>0.8689064758219001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1428571428571428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2463503766791058</v>
+        <v>0.9183658332930896</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1428571428571428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3049255902829298</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1111111111111111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3589769787622435</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09090909090909091</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3844157830842638</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3179,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3198,12 +3350,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3217,16 +3369,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3236,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3255,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3274,12 +3426,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3293,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3312,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3331,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3350,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3369,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3388,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3407,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3426,26 +3578,102 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Galactolipids metabolism</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Carbon fixation</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pantothenate and CoA biosynthesis</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,186 +3719,186 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.144163827918045e-09</v>
+        <v>2.332272446123425e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.954414915141961e-09</v>
+        <v>0.0009650281866195316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2285714285714286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.8360005972335e-09</v>
+        <v>0.001705884105791306</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1653543307086614</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1653543307086614</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.158996911856762e-09</v>
+        <v>0.006222509813799218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.413121561000758e-08</v>
+        <v>0.01338819915996952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2894736842105263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.097910311356512e-08</v>
+        <v>0.03456577243064036</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.658084287653297e-07</v>
+        <v>0.03978723811448546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3461538461538461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.410623202601493e-07</v>
+        <v>0.03978723811448546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.551184675216031e-07</v>
+        <v>0.06818521778842207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8333333333333334</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.715793695241229e-06</v>
+        <v>0.1205098493626883</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -3681,102 +3909,102 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.092573818687168e-05</v>
+        <v>0.1621152902176871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196078431372549</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.196078431372549</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001295927476688641</v>
+        <v>0.1670667807458444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2608695652173913</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001865535690462282</v>
+        <v>0.1867425790711066</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E14" t="n">
-        <v>0.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0004538813445199426</v>
+        <v>0.2021503208847847</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0008834677697836729</v>
+        <v>0.2266200299500206</v>
       </c>
       <c r="D16" t="n">
         <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3784,421 +4012,421 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0009473163041514621</v>
+        <v>0.3016862727876466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3076923076923077</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001328934406177892</v>
+        <v>0.3200364258677881</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003515637055846024</v>
+        <v>0.3367899849928105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2222222222222222</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0038909527434677</v>
+        <v>0.3549144470996385</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.004757247968097574</v>
+        <v>0.3899241044902011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.101123595505618</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.101123595505618</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.008266362183361952</v>
+        <v>0.3899241044902011</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.008829143441219918</v>
+        <v>0.4344955692390724</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1739130434782609</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.02472796683685492</v>
+        <v>0.5383138588779611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04932167973513259</v>
+        <v>0.5383138588779611</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.07184179730113918</v>
+        <v>0.5383138588779611</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07962780992048432</v>
+        <v>0.556747436592078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1538461538461539</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Folate biosynthesis</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.556747436592078</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E28" t="n">
         <v>15</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.07962780992048432</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.09073846902671158</v>
+        <v>0.643626774109858</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1428571428571428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1058172195799749</v>
+        <v>0.6515987609802176</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3333333333333333</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1385578421340035</v>
+        <v>0.7250952251083687</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1517540451234418</v>
+        <v>0.7880774978911955</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1052631578947368</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1701082195924705</v>
+        <v>0.8139763700643043</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.229808534558077</v>
+        <v>0.8139763700643043</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1428571428571428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.229808534558077</v>
+        <v>0.933399498058161</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1428571428571428</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2852436893596861</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1111111111111111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3367162872324828</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09090909090909091</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3610553199108232</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4208,16 +4436,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4227,16 +4455,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4246,16 +4474,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4265,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4284,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4303,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4322,16 +4550,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4341,16 +4569,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4360,16 +4588,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4379,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4398,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4417,12 +4645,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4436,12 +4664,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4455,7 +4683,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sterol biosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutamate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,26 +4805,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.164107229040256e-13</v>
+        <v>2.826983077202349e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2047244094488189</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2047244094488189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4528,127 +4832,127 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.288496528746812e-09</v>
+        <v>0.00115479488861686</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.437299531431457e-09</v>
+        <v>0.001912459229352073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2285714285714286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.76619915190095e-08</v>
+        <v>0.006949343129913058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3703703703703703</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.71684031417063e-08</v>
+        <v>0.01003629797867387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.31559227935681e-08</v>
+        <v>0.01671893083908202</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2894736842105263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.57045251683984e-08</v>
+        <v>0.02872555470607105</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.884254850270229e-07</v>
+        <v>0.04155921690775159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3461538461538461</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -4657,30 +4961,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.82459176353364e-07</v>
+        <v>0.04277774370560156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8333333333333334</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.82095398323847e-06</v>
+        <v>0.1251448435689455</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -4691,501 +4995,501 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.246008313782737e-05</v>
+        <v>0.1813130442152927</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196078431372549</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.196078431372549</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004741140469696154</v>
+        <v>0.186542099330344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0009224671568453814</v>
+        <v>0.2055222528654588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001285454435893444</v>
+        <v>0.214605461786122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2173913043478261</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001368751014699087</v>
+        <v>0.2347554664164558</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.003708202111382944</v>
+        <v>0.3232514418979187</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2222222222222222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.004006046218183824</v>
+        <v>0.330744327771883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.005241712745112195</v>
+        <v>0.330744327771883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.101123595505618</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.101123595505618</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008610079052702977</v>
+        <v>0.3597763371282751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.009292797212764454</v>
+        <v>0.3940282399818952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1739130434782609</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01089268889021654</v>
+        <v>0.4092832379670646</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2307692307692308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02542229526350768</v>
+        <v>0.4092832379670646</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2857142857142857</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05065235933872534</v>
+        <v>0.5527686915287084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.07288599153272639</v>
+        <v>0.5527686915287084</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pyruvate metabolism</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5786242058375214</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E26" t="n">
         <v>15</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.08169048451717757</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.09305689699613207</v>
+        <v>0.5786242058375214</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1073259641899977</v>
+        <v>0.658444700823267</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pyrimidine metabolism</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6782148275601336</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E29" t="n">
         <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Thiamine metabolism</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1404955717045001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1404955717045001</v>
+        <v>0.739326747018058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.172441341285749</v>
+        <v>0.7408727773000209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2328390770749361</v>
+        <v>0.8011905362145881</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1428571428571428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2328390770749361</v>
+        <v>0.8011905362145881</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1428571428571428</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2888586354753455</v>
+        <v>0.8264213494799517</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1111111111111111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3408152217921011</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09090909090909091</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3653621950496389</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3890015042606777</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07692307692307693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5193,41 +5497,41 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5135599777120682</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05263157894736842</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Photosynthesis</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>13</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5237,16 +5541,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5256,16 +5560,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5275,16 +5579,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5294,16 +5598,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -5313,16 +5617,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -5332,16 +5636,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -5351,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5370,16 +5674,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -5389,16 +5693,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5408,16 +5712,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5427,16 +5731,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5446,12 +5750,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5465,7 +5769,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terpenoid backbone biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cyanophycin metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Glutamate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
